--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/173.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/173.xlsx
@@ -479,13 +479,13 @@
         <v>-5.824646336703798</v>
       </c>
       <c r="E2" t="n">
-        <v>-13.04200492804725</v>
+        <v>-13.4348263825104</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.934298812584227</v>
+        <v>-1.58723495655291</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.06452723117622</v>
+        <v>-10.55957338622757</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.843041758532187</v>
       </c>
       <c r="E3" t="n">
-        <v>-13.39941170332353</v>
+        <v>-13.76662461342826</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.760707969205781</v>
+        <v>-1.4142201744995</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.976730248319608</v>
+        <v>-10.47804761643214</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.909568023567448</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.06553497960771</v>
+        <v>-14.35970593215845</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.588007402420572</v>
+        <v>-1.258906185888104</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.707159732808469</v>
+        <v>-10.17158299151302</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.997701965740541</v>
       </c>
       <c r="E5" t="n">
-        <v>-14.7775336850493</v>
+        <v>-15.02277870188051</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.587274233461435</v>
+        <v>-1.226306351812206</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.777504675977061</v>
+        <v>-10.19020024615395</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.082037578304829</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.4815984549688</v>
+        <v>-15.68235582674383</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.340864001677309</v>
+        <v>-0.9990763436912083</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.312937401941255</v>
+        <v>-9.749460963290085</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.135572789738283</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.25554993745744</v>
+        <v>-16.43175924140423</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.273006596048643</v>
+        <v>-0.9309178150971824</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.221723328042948</v>
+        <v>-9.63936778869401</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.137297386959152</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.95394574024647</v>
+        <v>-17.10569862248492</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.128834157155555</v>
+        <v>-0.7814429935531959</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.705677119233474</v>
+        <v>-9.14989895465324</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.069084455500309</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.80812685454921</v>
+        <v>-17.93057916302787</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.132159602077354</v>
+        <v>-0.7992092485094182</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.467122269154384</v>
+        <v>-8.955229503699615</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.92240703759114</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.47376571562824</v>
+        <v>-18.56860635741371</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.04899729442671</v>
+        <v>-0.6830281530919411</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.14632157262357</v>
+        <v>-8.650375232030024</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.702404934854431</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.14075308389998</v>
+        <v>-19.23393100322454</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.8363913885799202</v>
+        <v>-0.4567407907755477</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.800920439053153</v>
+        <v>-8.293570702684463</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.424437917982724</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.76316116099564</v>
+        <v>-19.85069629779542</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.078088391341025</v>
+        <v>-0.6795194159303585</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.282779461789001</v>
+        <v>-7.766526959487938</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.117488239444913</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.65648826079513</v>
+        <v>-20.69940482951031</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7942996349437709</v>
+        <v>-0.4239969413683908</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.642840791188274</v>
+        <v>-7.13774293090836</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.822601199016162</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.34637406673705</v>
+        <v>-21.42367102271459</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6168334699241741</v>
+        <v>-0.2242869538207014</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.391769699592492</v>
+        <v>-6.869141245807509</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.581243756875883</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.21829525139032</v>
+        <v>-22.28229042768067</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4913961163975966</v>
+        <v>-0.07562385505290185</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.808533792599279</v>
+        <v>-6.248893398680736</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.434801402810747</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.2107703606102</v>
+        <v>-23.30024315823056</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2217994162807734</v>
+        <v>0.1977957974937053</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.3335581378043</v>
+        <v>-5.812278191212013</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.4152835259648</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.93882022933575</v>
+        <v>-24.00326054392272</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.08787825051275745</v>
+        <v>0.3446128815608215</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.084437799331936</v>
+        <v>-5.59016727350213</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.535794789387724</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.88159695696844</v>
+        <v>-24.94235833445689</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1221353793713704</v>
+        <v>0.5834295776967467</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.559410270773038</v>
+        <v>-5.05708797869557</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.79187190100998</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.75144955777272</v>
+        <v>-25.7930176192952</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1762982362275912</v>
+        <v>0.6592471034531824</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.339341752306463</v>
+        <v>-4.877919814306549</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.160061029426712</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.51372270612654</v>
+        <v>-26.54015606556398</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3380798224428002</v>
+        <v>0.8119033545877083</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.008171951925003</v>
+        <v>-4.556163379668289</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-5.601365878692119</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.13332903041407</v>
+        <v>-27.16730355628835</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5476090371217842</v>
+        <v>1.034681979742519</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.672066353372211</v>
+        <v>-4.256834059797906</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.071208512591032</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.75924584467131</v>
+        <v>-27.77838679142591</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5946234966264224</v>
+        <v>1.111625443543343</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.145873609860399</v>
+        <v>-3.678952904666959</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.527429355120614</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.18301750305229</v>
+        <v>-28.18742960910996</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7113675610660939</v>
+        <v>1.268314123953121</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.038582188072454</v>
+        <v>-3.617314342888112</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-6.934673145817085</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.52443857655883</v>
+        <v>-28.51074402778638</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6284670994722844</v>
+        <v>1.166351269421758</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.859911531191418</v>
+        <v>-3.406777020890316</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-7.265418113447307</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.77207948481008</v>
+        <v>-28.77511689906936</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9476312581478825</v>
+        <v>1.472488586769839</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.696231561064159</v>
+        <v>-3.213220415678237</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-7.499695319880537</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.73642914417206</v>
+        <v>-28.76669854834213</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8743536391427417</v>
+        <v>1.388671663977109</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.868513174158432</v>
+        <v>-3.363794990660929</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-7.623977537218511</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.88857479549576</v>
+        <v>-28.92357052099169</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7514300077617756</v>
+        <v>1.289929515944811</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.631935261808442</v>
+        <v>-3.089341046189825</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-7.629732260986636</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.76181511938216</v>
+        <v>-28.7596287048076</v>
       </c>
       <c r="F28" t="n">
-        <v>1.019337800812016</v>
+        <v>1.533420164195232</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.771080256410306</v>
+        <v>-3.200730358767231</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.513616255093066</v>
       </c>
       <c r="E29" t="n">
-        <v>-28.80291185800234</v>
+        <v>-28.78610134115356</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8813187442545399</v>
+        <v>1.387414802904303</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.731201101954409</v>
+        <v>-3.157538851692377</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-7.279395570040235</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.57891564868325</v>
+        <v>-28.57477848098527</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8973437229328126</v>
+        <v>1.418495929850561</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.697436052925597</v>
+        <v>-3.132624199384572</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.936259474548914</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.21271084589733</v>
+        <v>-28.18473259472456</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8115105855024566</v>
+        <v>1.31328618421445</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.099579227012055</v>
+        <v>-3.491510404881967</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.499008755654144</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.18329244141197</v>
+        <v>-28.13710279698636</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8237518886594704</v>
+        <v>1.313809876328119</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.344274367123916</v>
+        <v>-3.72219678095318</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.98996811315377</v>
       </c>
       <c r="E33" t="n">
-        <v>-27.63700301303811</v>
+        <v>-27.56781019251959</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7718278155891848</v>
+        <v>1.251569068618553</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.711186154263288</v>
+        <v>-4.059821086635612</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.432326297417552</v>
       </c>
       <c r="E34" t="n">
-        <v>-27.01098146035813</v>
+        <v>-26.96432049303023</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8677551185105117</v>
+        <v>1.337192729203442</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.665048879049046</v>
+        <v>-4.012832811736657</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.849787255890849</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.71417895493621</v>
+        <v>-26.70159725190531</v>
       </c>
       <c r="F35" t="n">
-        <v>0.665099362823434</v>
+        <v>1.140939109605968</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.956601371031444</v>
+        <v>-4.312240685424091</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.271080554480599</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.82968915955488</v>
+        <v>-25.80879384421948</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6160817809840116</v>
+        <v>1.076551164230359</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.087458937934496</v>
+        <v>-4.472974887411961</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.722473603158057</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.19824739349843</v>
+        <v>-25.22541392189501</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5412461779407053</v>
+        <v>0.9836350909626291</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.307998779303372</v>
+        <v>-4.701029710611988</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.224681756046912</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.80593653884611</v>
+        <v>-24.8152844430751</v>
       </c>
       <c r="F38" t="n">
-        <v>0.506800329164124</v>
+        <v>0.9623993757533494</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.466782228167825</v>
+        <v>-4.851093685783852</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.79629180203607</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.19264070452829</v>
+        <v>-24.25427926630714</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4937603955337649</v>
+        <v>0.9154372854600781</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.639522071861559</v>
+        <v>-5.006604058937874</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.450312913822838</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.72875423024025</v>
+        <v>-23.79429429826593</v>
       </c>
       <c r="F40" t="n">
-        <v>0.450595073064594</v>
+        <v>0.8797607602163745</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.772081638134035</v>
+        <v>-5.125076307352654</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.191767679516946</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.94023101468877</v>
+        <v>-23.00238017627845</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6204153332246228</v>
+        <v>1.026656398100541</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.917340738162986</v>
+        <v>-5.254925766936893</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.021035755663407</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.46715374380585</v>
+        <v>-22.55488526514825</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7473190246694736</v>
+        <v>1.143426647145896</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.060465792828736</v>
+        <v>-5.362243373330521</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.932504986401075</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.62585545549937</v>
+        <v>-21.71337749999631</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9296293417405092</v>
+        <v>1.330149070274593</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.070036266206037</v>
+        <v>-5.355252083613039</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.912558366152208</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.25530400817</v>
+        <v>-21.38681619021514</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9012321368768053</v>
+        <v>1.303205111026321</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.298837350668042</v>
+        <v>-5.568473327693391</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.943883264863799</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.70261244370653</v>
+        <v>-20.84352489919203</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9519386257828103</v>
+        <v>1.351672816146391</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.450996094294583</v>
+        <v>-5.705850861411622</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.008698778169935</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.14740715709745</v>
+        <v>-20.290217996495</v>
       </c>
       <c r="F46" t="n">
-        <v>1.11637794947489</v>
+        <v>1.518180723687463</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.366511464056924</v>
+        <v>-5.616613725242417</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.089855568990269</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.53454336877341</v>
+        <v>-19.71635617833646</v>
       </c>
       <c r="F47" t="n">
-        <v>1.003037883774067</v>
+        <v>1.413651777799122</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.763365347795324</v>
+        <v>-6.004145889357509</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.17625384480233</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.96735862506416</v>
+        <v>-19.19329249520382</v>
       </c>
       <c r="F48" t="n">
-        <v>1.013158233870721</v>
+        <v>1.421742820955309</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.76834042287518</v>
+        <v>-6.018468868666357</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.26361686269197</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.30477027054724</v>
+        <v>-18.53139803273752</v>
       </c>
       <c r="F49" t="n">
-        <v>1.075817995271222</v>
+        <v>1.460155637492933</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.228770529213003</v>
+        <v>-6.484685772860223</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.353572233711739</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.61561763356447</v>
+        <v>-17.89257220787834</v>
       </c>
       <c r="F50" t="n">
-        <v>1.069651520632769</v>
+        <v>1.45952720695653</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.230132128708543</v>
+        <v>-6.483481280998784</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.456738526981237</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.73019828468138</v>
+        <v>-17.01292656454845</v>
       </c>
       <c r="F51" t="n">
-        <v>1.101806216412049</v>
+        <v>1.494300363304154</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.538966460442019</v>
+        <v>-6.814952204345604</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.587236868033856</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.29637173771794</v>
+        <v>-16.61958141797163</v>
       </c>
       <c r="F52" t="n">
-        <v>1.016902632483455</v>
+        <v>1.394510831044518</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.46108035083659</v>
+        <v>-6.727482529060032</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.757749863426707</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.65208642257376</v>
+        <v>-16.00915279797615</v>
       </c>
       <c r="F53" t="n">
-        <v>1.181368140781218</v>
+        <v>1.548947635365519</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.583755228463564</v>
+        <v>-6.840285810344344</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.984176681994846</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.27565653126845</v>
+        <v>-15.64593304023815</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9319597716463364</v>
+        <v>1.294354714305314</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.930478684620995</v>
+        <v>-7.211086011427709</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.276941797999418</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.60153385794797</v>
+        <v>-15.00163463279112</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9814617686909026</v>
+        <v>1.359161613371858</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.220564838685119</v>
+        <v>-7.452429522012088</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.638108109224549</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.23641571629792</v>
+        <v>-14.63269353871128</v>
       </c>
       <c r="F56" t="n">
-        <v>0.896846215424827</v>
+        <v>1.254069698461323</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.501918426753813</v>
+        <v>-7.709889657394632</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.067830624018733</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.51522621426144</v>
+        <v>-13.92539496998987</v>
       </c>
       <c r="F57" t="n">
-        <v>0.862531289676663</v>
+        <v>1.1865396004037</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.914888935290378</v>
+        <v>-8.0904174394894</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.556020080106035</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.22631836745307</v>
+        <v>-13.67076277202114</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7160284208777483</v>
+        <v>1.059046755330971</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.86727222985502</v>
+        <v>-8.072153677025192</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.082321700786435</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.66142477674111</v>
+        <v>-13.1332320942484</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7686332936958037</v>
+        <v>1.107763214205034</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.115161891860261</v>
+        <v>-8.297747147290973</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.625768705467311</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.50859832566965</v>
+        <v>-12.98538071825678</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6981443351959505</v>
+        <v>1.014035418161117</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.984395971077102</v>
+        <v>-8.186593496164718</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.162830651658835</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.05400738639923</v>
+        <v>-12.58508355887101</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6214889020576444</v>
+        <v>0.9360969393443218</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.373826519104243</v>
+        <v>-8.509593699572942</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.667607814695129</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.66773208335695</v>
+        <v>-12.22419423103883</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6566286428848371</v>
+        <v>0.9566780394115152</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.557328235733877</v>
+        <v>-8.755035100946781</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.118276290608172</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.24338436365092</v>
+        <v>-11.78840383864914</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6655052242115275</v>
+        <v>0.9434286289356884</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.534809474846107</v>
+        <v>-8.725682157975632</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.496445905506818</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.92432494339806</v>
+        <v>-11.49208574843235</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5844245927127178</v>
+        <v>0.8733848087324539</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.674046115567863</v>
+        <v>-8.887712497944834</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.787813446856513</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.63087406750361</v>
+        <v>-11.22388992471959</v>
       </c>
       <c r="F65" t="n">
-        <v>0.6218554865372127</v>
+        <v>0.8962439694941077</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.856173140399115</v>
+        <v>-9.074788413250257</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.986359546174798</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.3897400337647</v>
+        <v>-10.98987810372658</v>
       </c>
       <c r="F66" t="n">
-        <v>0.4065918432135527</v>
+        <v>0.6897914459829293</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.80516552852775</v>
+        <v>-9.038758395829827</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.094107564848358</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.18987293858291</v>
+        <v>-10.79605965245767</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3989590306568264</v>
+        <v>0.6619048409300528</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.892975603687207</v>
+        <v>-9.129749900579823</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.118575159674013</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.00096410087964</v>
+        <v>-10.62367330094066</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3696453645942017</v>
+        <v>0.6184122108898388</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.75798086908617</v>
+        <v>-9.025443523839792</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.071048547820547</v>
       </c>
       <c r="E69" t="n">
-        <v>-9.854906370377346</v>
+        <v>-10.466644220657</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1055343393680618</v>
+        <v>0.3782470075612158</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.732974570658474</v>
+        <v>-8.993092443517886</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.966136378114694</v>
       </c>
       <c r="E70" t="n">
-        <v>-9.753349377234077</v>
+        <v>-10.36003359861682</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2324118462072291</v>
+        <v>0.5010789928222897</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.622030396377687</v>
+        <v>-8.905072891512962</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.820184421100516</v>
       </c>
       <c r="E71" t="n">
-        <v>-9.596713066035667</v>
+        <v>-10.20677510155158</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1519465529419807</v>
+        <v>0.415468424540243</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.338411839917375</v>
+        <v>-8.587780932143732</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.647287054480064</v>
       </c>
       <c r="E72" t="n">
-        <v>-9.597289127360703</v>
+        <v>-10.17452875965241</v>
       </c>
       <c r="F72" t="n">
-        <v>0.104997554951551</v>
+        <v>0.4015643989223299</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.117073368075154</v>
+        <v>-8.410052921067299</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.460097602684229</v>
       </c>
       <c r="E73" t="n">
-        <v>-9.622177595062825</v>
+        <v>-10.18835423145327</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.02822971876585348</v>
+        <v>0.2508458086083794</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.020190327046381</v>
+        <v>-8.33207516534198</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.270166879000443</v>
       </c>
       <c r="E74" t="n">
-        <v>-9.759830067140733</v>
+        <v>-10.3260459804397</v>
       </c>
       <c r="F74" t="n">
-        <v>0.07989961040396211</v>
+        <v>0.3583859841503173</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.827314521582072</v>
+        <v>-8.117256660314938</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.081862576717245</v>
       </c>
       <c r="E75" t="n">
-        <v>-9.840949975548067</v>
+        <v>-10.40022696834092</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.1877332442866022</v>
+        <v>0.1214414873207589</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.630668132899347</v>
+        <v>-7.926816023179191</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.896683291402882</v>
       </c>
       <c r="E76" t="n">
-        <v>-10.22544472540388</v>
+        <v>-10.77494176797396</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.08656902022858484</v>
+        <v>0.227397494218848</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.361621309501876</v>
+        <v>-7.678114638397762</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.716040528228616</v>
       </c>
       <c r="E77" t="n">
-        <v>-10.5493221131025</v>
+        <v>-11.11937407113409</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.1834127843488326</v>
+        <v>0.1361834203205425</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.283578092262347</v>
+        <v>-7.545659810548019</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.537809269892813</v>
       </c>
       <c r="E78" t="n">
-        <v>-11.10257664658816</v>
+        <v>-11.68077201698731</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.2378636718675713</v>
+        <v>0.07392952030813503</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.025397880223509</v>
+        <v>-7.285816876048282</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.35839991773245</v>
       </c>
       <c r="E79" t="n">
-        <v>-11.54986208087289</v>
+        <v>-12.11793710117538</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.3121101212829998</v>
+        <v>-0.004558835228012752</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.97504488349423</v>
+        <v>-7.237650293893572</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-6.175543352275307</v>
       </c>
       <c r="E80" t="n">
-        <v>-12.0266051965515</v>
+        <v>-12.61196205660507</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.2305712591847299</v>
+        <v>0.1428081255584559</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.596232193071728</v>
+        <v>-6.891882575843587</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.986278011495968</v>
       </c>
       <c r="E81" t="n">
-        <v>-12.88081249545992</v>
+        <v>-13.46598606327371</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3242335937144382</v>
+        <v>0.01481777297774183</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.612571387018202</v>
+        <v>-6.89570552827337</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.786920590990225</v>
       </c>
       <c r="E82" t="n">
-        <v>-13.54770821761176</v>
+        <v>-14.13533004605695</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.2995938797663097</v>
+        <v>0.06699059980202021</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.405280956125154</v>
+        <v>-6.711680119530069</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.576013747649876</v>
       </c>
       <c r="E83" t="n">
-        <v>-14.25855480040328</v>
+        <v>-14.86674463661282</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.4825980888879567</v>
+        <v>-0.09850920042023902</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.096381162877469</v>
+        <v>-6.420258550576088</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.354648618910148</v>
       </c>
       <c r="E84" t="n">
-        <v>-15.41052034284107</v>
+        <v>-15.9908759432091</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.5057714649178118</v>
+        <v>-0.1136831794137995</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.939797220890425</v>
+        <v>-6.244153985052031</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.124396922550592</v>
       </c>
       <c r="E85" t="n">
-        <v>-16.23229800761053</v>
+        <v>-16.81582194526626</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.5084684793032074</v>
+        <v>-0.09184521827380045</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.626275844739611</v>
+        <v>-5.95531159975787</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-4.888673384450427</v>
       </c>
       <c r="E86" t="n">
-        <v>-17.2123747060393</v>
+        <v>-17.80895166962824</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.6232225137109364</v>
+        <v>-0.1795243704048399</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.328596155027285</v>
+        <v>-5.652080773640653</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.653877360344029</v>
       </c>
       <c r="E87" t="n">
-        <v>-18.2482769837852</v>
+        <v>-18.84300793267344</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.6373752930828422</v>
+        <v>-0.1672306980364592</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.848619240546766</v>
+        <v>-5.206785369387866</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.424846082660304</v>
       </c>
       <c r="E88" t="n">
-        <v>-19.55512446884061</v>
+        <v>-20.14858546435321</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.4748343533028132</v>
+        <v>-0.02531013523214857</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.667199200068968</v>
+        <v>-5.019303592694349</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.206681546504309</v>
       </c>
       <c r="E89" t="n">
-        <v>-21.05802918895087</v>
+        <v>-21.68406383393368</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6971285632524801</v>
+        <v>-0.2327314891536147</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.345141642465348</v>
+        <v>-4.677830149976449</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.007604963717543</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.5665112300717</v>
+        <v>-23.19097479871351</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.8687162842961419</v>
+        <v>-0.4060866710809095</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.0884015837391</v>
+        <v>-4.418838215161425</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.833732053006987</v>
       </c>
       <c r="E91" t="n">
-        <v>-24.04079617616995</v>
+        <v>-24.65761383995219</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.9058984243666439</v>
+        <v>-0.4421690577127066</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.118356772640969</v>
+        <v>-4.445153743873294</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.69118985505841</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.63302967856931</v>
+        <v>-26.30391855308788</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.06947365607117</v>
+        <v>-0.6092792111844981</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.886701566159468</v>
+        <v>-4.194396867545715</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.588297643103544</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.64227921108333</v>
+        <v>-28.29263935474607</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.038274698399336</v>
+        <v>-0.5800964681502907</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.850291871956628</v>
+        <v>-4.184538363505895</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.529103001171095</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.7558743972459</v>
+        <v>-30.42071462785159</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9790058434348423</v>
+        <v>-0.5425477436002204</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.920636815125222</v>
+        <v>-4.256690044466647</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.516027963224805</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.95514561320473</v>
+        <v>-32.618035090687</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.381489417395185</v>
+        <v>-0.9344789214701319</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.146793254413199</v>
+        <v>-4.451071464757754</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.558064118214845</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.11665862776802</v>
+        <v>-34.75196262316278</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.412478898221551</v>
+        <v>-1.00568795662628</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.368563772249196</v>
+        <v>-4.630278906055301</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.650349712682442</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.40415887257723</v>
+        <v>-37.04162309794088</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.658391622497691</v>
+        <v>-1.281398762170189</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.454396909679552</v>
+        <v>-4.76778736280195</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.811730081176099</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.86624497578087</v>
+        <v>-39.50640621552991</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.002889387172029</v>
+        <v>-1.605472534411435</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.80261288836094</v>
+        <v>-5.080235170119741</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.029192564812064</v>
       </c>
       <c r="E99" t="n">
-        <v>-41.24344058735876</v>
+        <v>-41.88441354988399</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.865498761150956</v>
+        <v>-1.475282674953311</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.12611059927715</v>
+        <v>-5.414808969240052</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.340602542369483</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.77414344975588</v>
+        <v>-44.41753848830683</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.041708065097747</v>
+        <v>-1.640638459844311</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.341007658121241</v>
+        <v>-5.622662369155295</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.701147025839117</v>
       </c>
       <c r="E101" t="n">
-        <v>-46.25348520810492</v>
+        <v>-46.88463894349885</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.255178062932091</v>
+        <v>-1.850481889791496</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.746057323438563</v>
+        <v>-6.031063664000097</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.201348982797509</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.60787402813251</v>
+        <v>-49.23790182548206</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.348303613045288</v>
+        <v>-1.944497716497931</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.05444651687542</v>
+        <v>-6.330104953207963</v>
       </c>
     </row>
   </sheetData>
